--- a/Subnets/4.xlsx
+++ b/Subnets/4.xlsx
@@ -8,57 +8,231 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa1849326a6bb03d/Archive/Documents/Python/Ngrok Minecraft Server Finder/Ngrok-Minecraft-Server-Finder/Subnets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{363C2A8B-EF89-43CF-A914-C0FBC3F0CC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_1DD5DDA6430E0DF58A3897F84405B11A75F72F4E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C13BA7F-B2C6-4B9C-A130-2CF15A8F0437}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="1500" windowWidth="18120" windowHeight="12840" xr2:uid="{A7DA351B-5054-46D3-A107-D2E4AF7A5C5E}"/>
+    <workbookView xWindow="10035" yWindow="615" windowWidth="18120" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Subnet</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Motd</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Max</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="67">
+  <si>
+    <t>Spigot 1.17</t>
+  </si>
+  <si>
+    <t>Aidens server</t>
+  </si>
+  <si>
+    <t>1.17.1</t>
+  </si>
+  <si>
+    <t>www.michaelbogart.net</t>
+  </si>
+  <si>
+    <t>Waterfall 1.8.x-1.17.x</t>
+  </si>
+  <si>
+    <t>§5§lPurplex Practice
+§7There are §a0§7 players online!</t>
+  </si>
+  <si>
+    <t>Purpur 1.17.1</t>
+  </si>
+  <si>
+    <t>FIFOSMP WOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>1.12.2</t>
+  </si>
+  <si>
+    <t>Stoneman5 - P4r4sit3 W4r</t>
+  </si>
+  <si>
+    <t>1.16.5</t>
+  </si>
+  <si>
+    <t>A Minecraft Server</t>
+  </si>
+  <si>
+    <t>Waterfall 1.8.x, 1.9.x, 1.10.x, 1.11.x, 1.12.x, 1.13.x, 1.14.x, 1.15.x, 1.16.x</t>
+  </si>
+  <si>
+    <t>§1Test</t>
+  </si>
+  <si>
+    <t>Join in the chaos. See if you live through the CREEPIES!</t>
+  </si>
+  <si>
+    <t>21w40a</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>Easycore</t>
+  </si>
+  <si>
+    <t>1.8.8</t>
+  </si>
+  <si>
+    <t>Chabad Server</t>
+  </si>
+  <si>
+    <t>Spigot 1.17.1</t>
+  </si>
+  <si>
+    <t>Sweeping Skyblock 2.0</t>
+  </si>
+  <si>
+    <t>ASSX - Error Project</t>
+  </si>
+  <si>
+    <t>HexaCord 1.7.x-1.17.x</t>
+  </si>
+  <si>
+    <t>§7mcaction.org§7</t>
+  </si>
+  <si>
+    <t>Paper 1.17.1</t>
+  </si>
+  <si>
+    <t>§aPowered by Fork
+§7A Minecraft Server Manager</t>
+  </si>
+  <si>
+    <t>Anormalcar - New World</t>
+  </si>
+  <si>
+    <t>obvMate - loverland</t>
+  </si>
+  <si>
+    <t>1.16.2</t>
+  </si>
+  <si>
+    <t>1.16.4</t>
+  </si>
+  <si>
+    <t>Baby Butt</t>
+  </si>
+  <si>
+    <t>i fucked your mom lol</t>
+  </si>
+  <si>
+    <t>Spigot 1.16.5</t>
+  </si>
+  <si>
+    <t>Cooper is the Merlin</t>
+  </si>
+  <si>
+    <t>Welcome to CrazySMP!   :)</t>
+  </si>
+  <si>
+    <t>opauloelegal - Mundo da Capivara</t>
+  </si>
+  <si>
+    <t>Apocalypse Now</t>
+  </si>
+  <si>
+    <t>It fucking WORKS!</t>
+  </si>
+  <si>
+    <t>21w42a</t>
+  </si>
+  <si>
+    <t>Better Minecraft [FORGE]</t>
+  </si>
+  <si>
+    <t>1.10.2</t>
+  </si>
+  <si>
+    <t>We Gay</t>
+  </si>
+  <si>
+    <t>§bSirius SMP§f //§e Pollux 2
+§d1.17.1 §o§dand above</t>
+  </si>
+  <si>
+    <t>Freeloader Server</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Leo's MC Forge Server (w/ Mods!)</t>
+  </si>
+  <si>
+    <t>Drunken Sailor</t>
+  </si>
+  <si>
+    <t>§d§oSkyFactory 4: Server§r - §4v4.2.2</t>
+  </si>
+  <si>
+    <t>§6 WELCOME TO §9 §n§9ISHIGO SERVER !!</t>
+  </si>
+  <si>
+    <t>Crimson Zyrx SMP lol</t>
+  </si>
+  <si>
+    <t>nice balls bro</t>
+  </si>
+  <si>
+    <t>Los Apeteporicos Craft</t>
+  </si>
+  <si>
+    <t>Paper 1.12.2</t>
+  </si>
+  <si>
+    <t>§b§l§m-----------[§r§6§l ModelCraft §b§l§m]-----------
+§e§lНаш сайт: §fmodelcraft.easydonate.ru</t>
+  </si>
+  <si>
+    <t>GAMING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§o§enew§7 server
+This time on §b1.17.1Once again we got a </t>
+  </si>
+  <si>
+    <t>21w41a</t>
+  </si>
+  <si>
+    <t>A Sexy Minecraft Server</t>
+  </si>
+  <si>
+    <t>StoneBlock 1.0.33</t>
+  </si>
+  <si>
+    <t>Tula</t>
+  </si>
+  <si>
+    <t>Welcome to the Eli SMP</t>
+  </si>
+  <si>
+    <t>A Test Server</t>
+  </si>
+  <si>
+    <t>§l§5Astro §l§5SMP §l§4| §3Its Chooseday</t>
+  </si>
+  <si>
+    <t>Andrew &amp; Aidan take a break plz</t>
+  </si>
+  <si>
+    <t>The Family Adventure Server</t>
+  </si>
+  <si>
+    <t>The LankySMP!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,21 +241,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,14 +282,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,37 +606,1681 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C5A902-0843-415B-9F8F-1E3F6E62BDB0}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>11382</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>13224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>17837</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>19690</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>15614</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10628</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>11528</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>13329</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>13882</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>16413</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>16800</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>16830</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>16921</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>16949</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>17385</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>17808</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>17839</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>18215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>18442</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>18449</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>19303</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>12921</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>13312</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>10935</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>11270</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>11485</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>12199</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>12634</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
+        <v>14063</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
+        <v>14145</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>14322</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2">
+        <v>14549</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2">
+        <v>15131</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2">
+        <v>16864</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2">
+        <v>17422</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>17633</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2">
+        <v>18082</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2">
+        <v>18802</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2">
+        <v>18866</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2">
+        <v>18875</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2">
+        <v>19535</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>10351</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>11678</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>11916</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>11973</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>12772</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>13603</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>14738</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>16815</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>18370</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>18485</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>18546</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>18584</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>18628</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>18770</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>19149</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>19642</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>19879</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>69420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>11709</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>11338</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>18402</v>
+      </c>
+      <c r="C61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>14800</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>12426</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>18052</v>
+      </c>
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>12532</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>13712</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>14561</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>16410</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68">
         <v>5</v>
       </c>
+      <c r="F68">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>16903</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>18145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>56</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>10624</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>4</v>
+      </c>
+      <c r="B72" s="1">
+        <v>13407</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>10241</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>11972</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>12821</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>16081</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>16288</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>16412</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>17221</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>17966</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>19164</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <v>11056</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>10404</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F84">
+    <sortCondition ref="C1:C84"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>